--- a/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/kayser_pressure_event.xlsx
+++ b/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/kayser_pressure_event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0097290-0934-4289-A116-782DCC9147D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00857F27-0F4E-494F-89D9-3C7B1317C790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D658C7E-A61A-4136-8743-3329CB1EDB16}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB224C2-E114-4D3B-B787-55125E716FA5}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:B29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.5779141105123101E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,8 +424,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>B2/3</f>
-        <v>0.33333333333333331</v>
+        <v>6.1024417699829603E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,8 +432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B29" si="0">B3/3</f>
-        <v>0.1111111111111111</v>
+        <v>1.2068579208866E-6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,8 +440,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
+        <v>3.0258892967883001E-8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -451,159 +448,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2345679012345678E-2</v>
+        <v>6.07355146616586E-9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1152263374485592E-3</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3717421124828531E-3</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5724737082761773E-4</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5241579027587258E-4</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0805263425290864E-5</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6935087808430289E-5</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.645029269476763E-6</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.881676423158921E-6</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2722547438630704E-7</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0907515812876902E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9691719376256336E-8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>2.323057312541878E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7435243751395932E-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
